--- a/static/data/source/current_wage.xlsx
+++ b/static/data/source/current_wage.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Wage Table" sheetId="2" r:id="rId1"/>
     <sheet name="Wage_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="BLS Data Series_January" sheetId="13" r:id="rId3"/>
+    <sheet name="BLS Data Series_February" sheetId="14" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="O9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0">
+    <comment ref="O12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="0">
+    <comment ref="O13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
+    <comment ref="O14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="0">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0">
+    <comment ref="O16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="0">
+    <comment ref="O17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0">
+    <comment ref="O18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N19" authorId="0">
+    <comment ref="O19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="0">
+    <comment ref="O20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N21" authorId="0">
+    <comment ref="O21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0">
+    <comment ref="O23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N24" authorId="0">
+    <comment ref="O24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0">
+    <comment ref="O25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N26" authorId="0">
+    <comment ref="O26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="0">
+    <comment ref="O27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N28" authorId="0">
+    <comment ref="O28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N29" authorId="0">
+    <comment ref="O29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N30" authorId="0">
+    <comment ref="O30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N31" authorId="0">
+    <comment ref="O31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N32" authorId="0">
+    <comment ref="O32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N33" authorId="0">
+    <comment ref="O33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N34" authorId="0">
+    <comment ref="O34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N35" authorId="0">
+    <comment ref="O35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N36" authorId="0">
+    <comment ref="O36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N37" authorId="0">
+    <comment ref="O37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N38" authorId="0">
+    <comment ref="O38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N39" authorId="0">
+    <comment ref="O39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N40" authorId="0">
+    <comment ref="O40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N41" authorId="0">
+    <comment ref="O41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N42" authorId="0">
+    <comment ref="O42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N43" authorId="0">
+    <comment ref="O43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N44" authorId="0">
+    <comment ref="O44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N45" authorId="0">
+    <comment ref="O45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N46" authorId="0">
+    <comment ref="O46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N47" authorId="0">
+    <comment ref="O47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N48" authorId="0">
+    <comment ref="O48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N49" authorId="0">
+    <comment ref="O49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N50" authorId="0">
+    <comment ref="O50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N51" authorId="0">
+    <comment ref="O51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N52" authorId="0">
+    <comment ref="O52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N53" authorId="0">
+    <comment ref="O53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N54" authorId="0">
+    <comment ref="O54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N55" authorId="0">
+    <comment ref="O55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1352,24 +1352,10 @@
     <t>CES0500000011</t>
   </si>
   <si>
-    <t>Average Weekly Wages January 2016</t>
-  </si>
-  <si>
     <t>Jan
 2016</t>
   </si>
   <si>
-    <t>January
-2015</t>
-  </si>
-  <si>
-    <t>January
-2016</t>
-  </si>
-  <si>
-    <t>January 2015 adj for inflation</t>
-  </si>
-  <si>
     <t>Dec
 2016</t>
   </si>
@@ -1415,6 +1401,20 @@
   </si>
   <si>
     <t>2015 to 2016</t>
+  </si>
+  <si>
+    <t>February
+2015</t>
+  </si>
+  <si>
+    <t>February
+2016</t>
+  </si>
+  <si>
+    <t>February 2015 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Wages February 2016</t>
   </si>
 </sst>
 </file>
@@ -3152,8 +3152,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4330,7 +4330,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:E54"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,7 +4343,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4372,11 +4372,11 @@
       </c>
       <c r="C3" s="31">
         <f>+Wage_Comparison!E58</f>
-        <v>878.15</v>
+        <v>872.04</v>
       </c>
       <c r="D3" s="30">
         <f>+Wage_Comparison!H58</f>
-        <v>1.1153915190060593</v>
+        <v>0.6029513184971691</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,11 +4389,11 @@
       </c>
       <c r="C4" s="31">
         <f>+Wage_Comparison!E5</f>
-        <v>771.06</v>
+        <v>768.6</v>
       </c>
       <c r="D4" s="30">
         <f>+Wage_Comparison!H5</f>
-        <v>3.7321624124690311</v>
+        <v>0.10472978592164228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,11 +4406,11 @@
       </c>
       <c r="C5" s="31">
         <f>+Wage_Comparison!E6</f>
-        <v>929.07</v>
+        <v>944.03</v>
       </c>
       <c r="D5" s="30">
         <f>+Wage_Comparison!H6</f>
-        <v>-0.1986416794242829</v>
+        <v>-1.1823545483942599</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="C6" s="31">
         <f>+Wage_Comparison!E7</f>
-        <v>800.96</v>
+        <v>808.49</v>
       </c>
       <c r="D6" s="30">
         <f>+Wage_Comparison!H7</f>
-        <v>0.25518193436506742</v>
+        <v>-0.90458744325222495</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,11 +4440,11 @@
       </c>
       <c r="C7" s="31">
         <f>+Wage_Comparison!E8</f>
-        <v>674.67</v>
+        <v>675.29</v>
       </c>
       <c r="D7" s="30">
         <f>+Wage_Comparison!H8</f>
-        <v>-0.79868944761603</v>
+        <v>-0.90188572860380178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="C8" s="31">
         <f>+Wage_Comparison!E9</f>
-        <v>970.94</v>
+        <v>973.33</v>
       </c>
       <c r="D8" s="30">
         <f>+Wage_Comparison!H9</f>
-        <v>0.24163030667836427</v>
+        <v>-1.7504754454599647</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4474,11 +4474,11 @@
       </c>
       <c r="C9" s="31">
         <f>+Wage_Comparison!E10</f>
-        <v>912.49</v>
+        <v>901.05</v>
       </c>
       <c r="D9" s="30">
         <f>+Wage_Comparison!H10</f>
-        <v>0.56199617794125967</v>
+        <v>-3.0318183340602878</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="C10" s="31">
         <f>+Wage_Comparison!E11</f>
-        <v>1006.29</v>
+        <v>1004.59</v>
       </c>
       <c r="D10" s="30">
         <f>+Wage_Comparison!H11</f>
-        <v>3.8249450957252407</v>
+        <v>2.1769998140522828</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="C11" s="31">
         <f>+Wage_Comparison!E12</f>
-        <v>804.27</v>
+        <v>807.28</v>
       </c>
       <c r="D11" s="30">
         <f>+Wage_Comparison!H12</f>
-        <v>8.6043168229517519</v>
+        <v>6.5173329968605254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="C12" s="31">
         <f>+Wage_Comparison!E13</f>
-        <v>1286.9100000000001</v>
+        <v>1308.03</v>
       </c>
       <c r="D12" s="30">
         <f>+Wage_Comparison!H13</f>
-        <v>-9.2081451615967929</v>
+        <v>-13.098997384338739</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="C13" s="31">
         <f>+Wage_Comparison!E14</f>
-        <v>777.02</v>
+        <v>783.76</v>
       </c>
       <c r="D13" s="30">
         <f>+Wage_Comparison!H14</f>
-        <v>0.70756570984373823</v>
+        <v>-0.75809803265951548</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="C14" s="31">
         <f>+Wage_Comparison!E15</f>
-        <v>833.49</v>
+        <v>846.68</v>
       </c>
       <c r="D14" s="30">
         <f>+Wage_Comparison!H15</f>
-        <v>-0.97907172904727613</v>
+        <v>-1.3152500726355321</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,11 +4576,11 @@
       </c>
       <c r="C15" s="31">
         <f>+Wage_Comparison!E16</f>
-        <v>828.96</v>
+        <v>832.93</v>
       </c>
       <c r="D15" s="30">
         <f>+Wage_Comparison!H16</f>
-        <v>0.49178868196284586</v>
+        <v>-1.7471573499588833</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,11 +4593,11 @@
       </c>
       <c r="C16" s="31">
         <f>+Wage_Comparison!E17</f>
-        <v>729.66</v>
+        <v>726.43</v>
       </c>
       <c r="D16" s="30">
         <f>+Wage_Comparison!H17</f>
-        <v>0.31313521843787662</v>
+        <v>-3.4452393446381291</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4610,11 +4610,11 @@
       </c>
       <c r="C17" s="31">
         <f>+Wage_Comparison!E18</f>
-        <v>900.32</v>
+        <v>890.63</v>
       </c>
       <c r="D17" s="30">
         <f>+Wage_Comparison!H18</f>
-        <v>1.7803629471462967</v>
+        <v>-2.1620944514485485</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,11 +4627,11 @@
       </c>
       <c r="C18" s="31">
         <f>+Wage_Comparison!E19</f>
-        <v>804.2</v>
+        <v>791.99</v>
       </c>
       <c r="D18" s="30">
         <f>+Wage_Comparison!H19</f>
-        <v>-0.60052582420941913</v>
+        <v>-2.0109555758233699</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,11 +4644,11 @@
       </c>
       <c r="C19" s="31">
         <f>+Wage_Comparison!E20</f>
-        <v>778.68</v>
+        <v>773.26</v>
       </c>
       <c r="D19" s="30">
         <f>+Wage_Comparison!H20</f>
-        <v>1.6290742326101615</v>
+        <v>-1.273111458925591</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,11 +4661,11 @@
       </c>
       <c r="C20" s="31">
         <f>+Wage_Comparison!E21</f>
-        <v>771.12</v>
+        <v>769.5</v>
       </c>
       <c r="D20" s="30">
         <f>+Wage_Comparison!H21</f>
-        <v>-1.2340922646234875</v>
+        <v>-2.5612467470009448</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,11 +4678,11 @@
       </c>
       <c r="C21" s="31">
         <f>+Wage_Comparison!E22</f>
-        <v>736.75</v>
+        <v>735.99</v>
       </c>
       <c r="D21" s="30">
         <f>+Wage_Comparison!H22</f>
-        <v>-1.8182448836917109</v>
+        <v>-0.37813197255112119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,11 +4695,11 @@
       </c>
       <c r="C22" s="31">
         <f>+Wage_Comparison!E23</f>
-        <v>796.37</v>
+        <v>787.42</v>
       </c>
       <c r="D22" s="30">
         <f>+Wage_Comparison!H23</f>
-        <v>-1.1185746664604035</v>
+        <v>-3.3207167360583045</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="C23" s="31">
         <f>+Wage_Comparison!E24</f>
-        <v>728.6</v>
+        <v>747.94</v>
       </c>
       <c r="D23" s="30">
         <f>+Wage_Comparison!H24</f>
-        <v>-3.3222769176559197</v>
+        <v>-1.0154855607350188</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="C24" s="31">
         <f>+Wage_Comparison!E25</f>
-        <v>921.36</v>
+        <v>919.34</v>
       </c>
       <c r="D24" s="30">
         <f>+Wage_Comparison!H25</f>
-        <v>-1.2526716726400822</v>
+        <v>-3.1183414529165732</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,11 +4746,11 @@
       </c>
       <c r="C25" s="31">
         <f>+Wage_Comparison!E26</f>
-        <v>1047.6199999999999</v>
+        <v>1039.5</v>
       </c>
       <c r="D25" s="30">
         <f>+Wage_Comparison!H26</f>
-        <v>2.4659026199977063</v>
+        <v>1.9039978049496531</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,11 +4763,11 @@
       </c>
       <c r="C26" s="31">
         <f>+Wage_Comparison!E27</f>
-        <v>824.04</v>
+        <v>820.66</v>
       </c>
       <c r="D26" s="30">
         <f>+Wage_Comparison!H27</f>
-        <v>-0.17579633352623469</v>
+        <v>-1.1893548427510225</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="C27" s="31">
         <f>+Wage_Comparison!E28</f>
-        <v>890.1</v>
+        <v>875.16</v>
       </c>
       <c r="D27" s="30">
         <f>+Wage_Comparison!H28</f>
-        <v>0.49946178993418577</v>
+        <v>-2.0096629073204975</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,11 +4797,11 @@
       </c>
       <c r="C28" s="31">
         <f>+Wage_Comparison!E29</f>
-        <v>684.83</v>
+        <v>681.27</v>
       </c>
       <c r="D28" s="30">
         <f>+Wage_Comparison!H29</f>
-        <v>-4.3788365435792898E-2</v>
+        <v>-3.3151408182892861</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,11 +4814,11 @@
       </c>
       <c r="C29" s="31">
         <f>+Wage_Comparison!E30</f>
-        <v>744.49</v>
+        <v>735.93</v>
       </c>
       <c r="D29" s="30">
         <f>+Wage_Comparison!H30</f>
-        <v>-1.2576679995265794</v>
+        <v>-4.0897372022778207</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,11 +4831,11 @@
       </c>
       <c r="C30" s="31">
         <f>+Wage_Comparison!E31</f>
-        <v>711.34</v>
+        <v>722.25</v>
       </c>
       <c r="D30" s="30">
         <f>+Wage_Comparison!H31</f>
-        <v>0.22925031110081484</v>
+        <v>-1.0650772394732222</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C31" s="31">
         <f>+Wage_Comparison!E32</f>
-        <v>767.42</v>
+        <v>760.57</v>
       </c>
       <c r="D31" s="30">
         <f>+Wage_Comparison!H32</f>
-        <v>2.504351112509795</v>
+        <v>-0.36037279177227877</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,11 +4865,11 @@
       </c>
       <c r="C32" s="31">
         <f>+Wage_Comparison!E33</f>
-        <v>737.37</v>
+        <v>740.69</v>
       </c>
       <c r="D32" s="30">
         <f>+Wage_Comparison!H33</f>
-        <v>1.3844042189257166</v>
+        <v>3.372738921105789E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,11 +4882,11 @@
       </c>
       <c r="C33" s="31">
         <f>+Wage_Comparison!E34</f>
-        <v>859.55</v>
+        <v>855.9</v>
       </c>
       <c r="D33" s="30">
         <f>+Wage_Comparison!H34</f>
-        <v>4.7653018516710333</v>
+        <v>3.3843891006005933</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="C34" s="31">
         <f>+Wage_Comparison!E35</f>
-        <v>933.41</v>
+        <v>939.46</v>
       </c>
       <c r="D34" s="30">
         <f>+Wage_Comparison!H35</f>
-        <v>0.194462207263979</v>
+        <v>-1.3121824099224577</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,11 +4916,11 @@
       </c>
       <c r="C35" s="31">
         <f>+Wage_Comparison!E36</f>
-        <v>688.71</v>
+        <v>692.11</v>
       </c>
       <c r="D35" s="30">
         <f>+Wage_Comparison!H36</f>
-        <v>-2.8094328949118452</v>
+        <v>-3.2702696070411652</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4933,11 +4933,11 @@
       </c>
       <c r="C36" s="31">
         <f>+Wage_Comparison!E37</f>
-        <v>975.61</v>
+        <v>982.39</v>
       </c>
       <c r="D36" s="30">
         <f>+Wage_Comparison!H37</f>
-        <v>9.8338409776999036E-2</v>
+        <v>-0.59470119104658714</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4950,11 +4950,11 @@
       </c>
       <c r="C37" s="31">
         <f>+Wage_Comparison!E38</f>
-        <v>776.11</v>
+        <v>782.81</v>
       </c>
       <c r="D37" s="30">
         <f>+Wage_Comparison!H38</f>
-        <v>1.569136370463009</v>
+        <v>0.49837073557492673</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,11 +4967,11 @@
       </c>
       <c r="C38" s="31">
         <f>+Wage_Comparison!E39</f>
-        <v>887.5</v>
+        <v>872.1</v>
       </c>
       <c r="D38" s="30">
         <f>+Wage_Comparison!H39</f>
-        <v>1.2207966595263242</v>
+        <v>-1.1379100891191762</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,11 +4984,11 @@
       </c>
       <c r="C39" s="31">
         <f>+Wage_Comparison!E40</f>
-        <v>785.66</v>
+        <v>780.38</v>
       </c>
       <c r="D39" s="30">
         <f>+Wage_Comparison!H40</f>
-        <v>1.8635094851568779</v>
+        <v>0.10850616980038197</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="C40" s="31">
         <f>+Wage_Comparison!E41</f>
-        <v>755.24</v>
+        <v>755.07</v>
       </c>
       <c r="D40" s="30">
         <f>+Wage_Comparison!H41</f>
-        <v>-1.3649365869007557</v>
+        <v>-2.6171154911142747</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,11 +5018,11 @@
       </c>
       <c r="C41" s="31">
         <f>+Wage_Comparison!E42</f>
-        <v>809.86</v>
+        <v>822.28</v>
       </c>
       <c r="D41" s="30">
         <f>+Wage_Comparison!H42</f>
-        <v>2.6561305732671014</v>
+        <v>0.79686451291847149</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,11 +5035,11 @@
       </c>
       <c r="C42" s="31">
         <f>+Wage_Comparison!E43</f>
-        <v>829.36</v>
+        <v>824.21</v>
       </c>
       <c r="D42" s="30">
         <f>+Wage_Comparison!H43</f>
-        <v>2.3169602410822332</v>
+        <v>0.50204025993465518</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,11 +5052,11 @@
       </c>
       <c r="C43" s="31">
         <f>+Wage_Comparison!E44</f>
-        <v>840.06</v>
+        <v>845.98</v>
       </c>
       <c r="D43" s="30">
         <f>+Wage_Comparison!H44</f>
-        <v>9.8020681634691798E-2</v>
+        <v>0.69454248004261476</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,11 +5069,11 @@
       </c>
       <c r="C44" s="31">
         <f>+Wage_Comparison!E45</f>
-        <v>753.91</v>
+        <v>749.58</v>
       </c>
       <c r="D44" s="30">
         <f>+Wage_Comparison!H45</f>
-        <v>-8.2173332480606209E-2</v>
+        <v>0.40154307740571937</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5086,11 +5086,11 @@
       </c>
       <c r="C45" s="31">
         <f>+Wage_Comparison!E46</f>
-        <v>718.37</v>
+        <v>705.41</v>
       </c>
       <c r="D45" s="30">
         <f>+Wage_Comparison!H46</f>
-        <v>1.019224919202677</v>
+        <v>-2.4458058856782094</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="C46" s="31">
         <f>+Wage_Comparison!E47</f>
-        <v>753.6</v>
+        <v>747.25</v>
       </c>
       <c r="D46" s="30">
         <f>+Wage_Comparison!H47</f>
-        <v>3.3954455733673505</v>
+        <v>1.6575213789585153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5120,11 +5120,11 @@
       </c>
       <c r="C47" s="31">
         <f>+Wage_Comparison!E48</f>
-        <v>877.86</v>
+        <v>871.08</v>
       </c>
       <c r="D47" s="30">
         <f>+Wage_Comparison!H48</f>
-        <v>-1.9298210484585465</v>
+        <v>-4.9792860410958317</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,11 +5137,11 @@
       </c>
       <c r="C48" s="31">
         <f>+Wage_Comparison!E49</f>
-        <v>835.79</v>
+        <v>852.7</v>
       </c>
       <c r="D48" s="30">
         <f>+Wage_Comparison!H49</f>
-        <v>-0.13695246166960384</v>
+        <v>-0.69543494568062858</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C49" s="31">
         <f>+Wage_Comparison!E50</f>
-        <v>808.83</v>
+        <v>796.38</v>
       </c>
       <c r="D49" s="30">
         <f>+Wage_Comparison!H50</f>
-        <v>2.8918035436120038</v>
+        <v>0.92766872947460666</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,11 +5171,11 @@
       </c>
       <c r="C50" s="31">
         <f>+Wage_Comparison!E51</f>
-        <v>919.77</v>
+        <v>912.98</v>
       </c>
       <c r="D50" s="30">
         <f>+Wage_Comparison!H51</f>
-        <v>1.9726466715938473</v>
+        <v>-2.0959869406184994</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,11 +5188,11 @@
       </c>
       <c r="C51" s="31">
         <f>+Wage_Comparison!E52</f>
-        <v>1031.9000000000001</v>
+        <v>1031.53</v>
       </c>
       <c r="D51" s="30">
         <f>+Wage_Comparison!H52</f>
-        <v>2.7312670869881206</v>
+        <v>-0.34675158632925251</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="C52" s="31">
         <f>+Wage_Comparison!E53</f>
-        <v>715.12</v>
+        <v>727.16</v>
       </c>
       <c r="D52" s="30">
         <f>+Wage_Comparison!H53</f>
-        <v>-1.3117077597805782</v>
+        <v>1.1428320717318252</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,11 +5222,11 @@
       </c>
       <c r="C53" s="31">
         <f>+Wage_Comparison!E54</f>
-        <v>795.14</v>
+        <v>793.48</v>
       </c>
       <c r="D53" s="30">
         <f>+Wage_Comparison!H54</f>
-        <v>-0.36457496366374409</v>
+        <v>-1.2365674172038932</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="C54" s="31">
         <f>+Wage_Comparison!E55</f>
-        <v>773.14</v>
+        <v>780.55</v>
       </c>
       <c r="D54" s="30">
         <f>+Wage_Comparison!H55</f>
-        <v>-5.9815940126965668</v>
+        <v>-7.5458441418326805</v>
       </c>
     </row>
   </sheetData>
@@ -5260,10 +5260,10 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5304,14 +5304,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>59</v>
@@ -5352,21 +5352,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="36">
-        <f>'BLS Data Series_January'!B5</f>
-        <v>733.25</v>
+        <f>'BLS Data Series_February'!C5</f>
+        <v>760.06</v>
       </c>
       <c r="E5" s="36">
-        <f>'BLS Data Series_January'!N5</f>
-        <v>771.06</v>
+        <f>'BLS Data Series_February'!O5</f>
+        <v>768.6</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <f>D5/$G$61</f>
-        <v>743.3181590624157</v>
+        <v>767.79588900912552</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>3.7321624124690311</v>
+        <v>0.10472978592164228</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5384,21 +5384,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="36">
-        <f>'BLS Data Series_January'!B6</f>
-        <v>918.31</v>
+        <f>'BLS Data Series_February'!C6</f>
+        <v>945.7</v>
       </c>
       <c r="E6" s="36">
-        <f>'BLS Data Series_January'!N6</f>
-        <v>929.07</v>
+        <f>'BLS Data Series_February'!O6</f>
+        <v>944.03</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>930.91919352009131</v>
+        <v>955.32533252102485</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-0.1986416794242829</v>
+        <v>-1.1823545483942599</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5416,21 +5416,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="36">
-        <f>'BLS Data Series_January'!B7</f>
-        <v>788.1</v>
+        <f>'BLS Data Series_February'!C7</f>
+        <v>807.65</v>
       </c>
       <c r="E7" s="36">
-        <f>'BLS Data Series_January'!N7</f>
-        <v>800.96</v>
+        <f>'BLS Data Series_February'!O7</f>
+        <v>808.49</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>798.92129717980208</v>
+        <v>815.8702599245064</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>0.25518193436506742</v>
+        <v>-0.90458744325222495</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5448,21 +5448,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="36">
-        <f>'BLS Data Series_January'!B8</f>
-        <v>670.89</v>
+        <f>'BLS Data Series_February'!C8</f>
+        <v>674.57</v>
       </c>
       <c r="E8" s="36">
-        <f>'BLS Data Series_January'!N8</f>
-        <v>674.67</v>
+        <f>'BLS Data Series_February'!O8</f>
+        <v>675.29</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>680.10190212531074</v>
+        <v>681.43577197706225</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>-0.79868944761603</v>
+        <v>-0.90188572860380178</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5480,21 +5480,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="36">
-        <f>'BLS Data Series_January'!B9</f>
-        <v>955.48</v>
+        <f>'BLS Data Series_February'!C9</f>
+        <v>980.69</v>
       </c>
       <c r="E9" s="36">
-        <f>'BLS Data Series_January'!N9</f>
-        <v>970.94</v>
+        <f>'BLS Data Series_February'!O9</f>
+        <v>973.33</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>968.59956988879242</v>
+        <v>990.67146066410476</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>0.24163030667836427</v>
+        <v>-1.7504754454599647</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5512,21 +5512,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="36">
-        <f>'BLS Data Series_January'!B10</f>
-        <v>895.1</v>
+        <f>'BLS Data Series_February'!C10</f>
+        <v>919.86</v>
       </c>
       <c r="E10" s="36">
-        <f>'BLS Data Series_January'!N10</f>
-        <v>912.49</v>
+        <f>'BLS Data Series_February'!O10</f>
+        <v>901.05</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>907.39050007060121</v>
+        <v>929.22233305783004</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>0.56199617794125967</v>
+        <v>-3.0318183340602878</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5544,21 +5544,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="36">
-        <f>'BLS Data Series_January'!B11</f>
-        <v>956.09</v>
+        <f>'BLS Data Series_February'!C11</f>
+        <v>973.28</v>
       </c>
       <c r="E11" s="36">
-        <f>'BLS Data Series_January'!N11</f>
-        <v>1006.29</v>
+        <f>'BLS Data Series_February'!O11</f>
+        <v>1004.59</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>969.21794571835676</v>
+        <v>983.18604170039441</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>3.8249450957252407</v>
+        <v>2.1769998140522828</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5576,21 +5576,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <f>'BLS Data Series_January'!B12</f>
-        <v>730.52</v>
+        <f>'BLS Data Series_February'!C12</f>
+        <v>750.25</v>
       </c>
       <c r="E12" s="36">
-        <f>'BLS Data Series_January'!N12</f>
-        <v>804.27</v>
+        <f>'BLS Data Series_February'!O12</f>
+        <v>807.28</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>740.55067379239813</v>
+        <v>757.88604285069141</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>8.6043168229517519</v>
+        <v>6.5173329968605254</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5608,21 +5608,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="36">
-        <f>'BLS Data Series_January'!B13</f>
-        <v>1398.23</v>
+        <f>'BLS Data Series_February'!C13</f>
+        <v>1490.03</v>
       </c>
       <c r="E13" s="36">
-        <f>'BLS Data Series_January'!N13</f>
-        <v>1286.9100000000001</v>
+        <f>'BLS Data Series_February'!O13</f>
+        <v>1308.03</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>1417.428911757029</v>
+        <v>1505.1955220643995</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>-9.2081451615967929</v>
+        <v>-13.098997384338739</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5640,21 +5640,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="36">
-        <f>'BLS Data Series_January'!B14</f>
-        <v>761.11</v>
+        <f>'BLS Data Series_February'!C14</f>
+        <v>781.79</v>
       </c>
       <c r="E14" s="36">
-        <f>'BLS Data Series_January'!N14</f>
-        <v>777.02</v>
+        <f>'BLS Data Series_February'!O14</f>
+        <v>783.76</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>771.56070104874902</v>
+        <v>789.74705690135556</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>0.70756570984373823</v>
+        <v>-0.75809803265951548</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5672,21 +5672,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="36">
-        <f>'BLS Data Series_January'!B15</f>
-        <v>830.33</v>
+        <f>'BLS Data Series_February'!C15</f>
+        <v>849.32</v>
       </c>
       <c r="E15" s="36">
-        <f>'BLS Data Series_January'!N15</f>
-        <v>833.49</v>
+        <f>'BLS Data Series_February'!O15</f>
+        <v>846.68</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>841.73115174128293</v>
+        <v>857.96437709290137</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>-0.97907172904727613</v>
+        <v>-1.3152500726355321</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5704,21 +5704,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="36">
-        <f>'BLS Data Series_January'!B16</f>
-        <v>813.73</v>
+        <f>'BLS Data Series_February'!C16</f>
+        <v>839.2</v>
       </c>
       <c r="E16" s="36">
-        <f>'BLS Data Series_January'!N16</f>
-        <v>828.96</v>
+        <f>'BLS Data Series_February'!O16</f>
+        <v>832.93</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>824.90321933018697</v>
+        <v>847.74137575514862</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>0.49178868196284586</v>
+        <v>-1.7471573499588833</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5736,21 +5736,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="36">
-        <f>'BLS Data Series_January'!B17</f>
-        <v>717.53</v>
+        <f>'BLS Data Series_February'!C17</f>
+        <v>744.77</v>
       </c>
       <c r="E17" s="36">
-        <f>'BLS Data Series_January'!N17</f>
-        <v>729.66</v>
+        <f>'BLS Data Series_February'!O17</f>
+        <v>726.43</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>727.38230981528147</v>
+        <v>752.35026742273828</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>0.31313521843787662</v>
+        <v>-3.4452393446381291</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5768,21 +5768,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="36">
-        <f>'BLS Data Series_January'!B18</f>
-        <v>872.59</v>
+        <f>'BLS Data Series_February'!C18</f>
+        <v>901.14</v>
       </c>
       <c r="E18" s="36">
-        <f>'BLS Data Series_January'!N18</f>
-        <v>900.32</v>
+        <f>'BLS Data Series_February'!O18</f>
+        <v>890.63</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>884.57141822880794</v>
+        <v>910.31180093898308</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>1.7803629471462967</v>
+        <v>-2.1620944514485485</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5800,21 +5800,21 @@
         <v>19</v>
       </c>
       <c r="D19" s="36">
-        <f>'BLS Data Series_January'!B19</f>
-        <v>798.1</v>
+        <f>'BLS Data Series_February'!C19</f>
+        <v>800.1</v>
       </c>
       <c r="E19" s="36">
-        <f>'BLS Data Series_January'!N19</f>
-        <v>804.2</v>
+        <f>'BLS Data Series_February'!O19</f>
+        <v>791.99</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>809.05860586118513</v>
+        <v>808.24341604110384</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>-0.60052582420941913</v>
+        <v>-2.0109555758233699</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5832,21 +5832,21 @@
         <v>20</v>
       </c>
       <c r="D20" s="36">
-        <f>'BLS Data Series_January'!B20</f>
-        <v>755.82</v>
+        <f>'BLS Data Series_February'!C20</f>
+        <v>775.34</v>
       </c>
       <c r="E20" s="36">
-        <f>'BLS Data Series_January'!N20</f>
-        <v>778.68</v>
+        <f>'BLS Data Series_February'!O20</f>
+        <v>773.26</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>766.19806475629741</v>
+        <v>783.23140881553491</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>1.6290742326101615</v>
+        <v>-1.273111458925591</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5864,21 +5864,21 @@
         <v>21</v>
       </c>
       <c r="D21" s="36">
-        <f>'BLS Data Series_January'!B21</f>
-        <v>770.18</v>
+        <f>'BLS Data Series_February'!C21</f>
+        <v>781.77</v>
       </c>
       <c r="E21" s="36">
-        <f>'BLS Data Series_January'!N21</f>
-        <v>771.12</v>
+        <f>'BLS Data Series_February'!O21</f>
+        <v>769.5</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>780.75524002276347</v>
+        <v>789.72685334139953</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2340922646234875</v>
+        <v>-2.5612467470009448</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5896,21 +5896,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="36">
-        <f>'BLS Data Series_January'!B22</f>
-        <v>740.23</v>
+        <f>'BLS Data Series_February'!C22</f>
+        <v>731.34</v>
       </c>
       <c r="E22" s="36">
-        <f>'BLS Data Series_January'!N22</f>
-        <v>736.75</v>
+        <f>'BLS Data Series_February'!O22</f>
+        <v>735.99</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>750.3940005220212</v>
+        <v>738.78357691226211</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8182448836917109</v>
+        <v>-0.37813197255112119</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5928,21 +5928,21 @@
         <v>23</v>
       </c>
       <c r="D23" s="36">
-        <f>'BLS Data Series_January'!B23</f>
-        <v>794.47</v>
+        <f>'BLS Data Series_February'!C23</f>
+        <v>806.26</v>
       </c>
       <c r="E23" s="36">
-        <f>'BLS Data Series_January'!N23</f>
-        <v>796.37</v>
+        <f>'BLS Data Series_February'!O23</f>
+        <v>787.42</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>805.37876280984312</v>
+        <v>814.466112507562</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1185746664604035</v>
+        <v>-3.3207167360583045</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5960,21 +5960,21 @@
         <v>24</v>
       </c>
       <c r="D24" s="36">
-        <f>'BLS Data Series_January'!B24</f>
-        <v>743.43</v>
+        <f>'BLS Data Series_February'!C24</f>
+        <v>748</v>
       </c>
       <c r="E24" s="36">
-        <f>'BLS Data Series_January'!N24</f>
-        <v>728.6</v>
+        <f>'BLS Data Series_February'!O24</f>
+        <v>747.94</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>753.63793930006375</v>
+        <v>755.61314235563771</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>-3.3222769176559197</v>
+        <v>-1.0154855607350188</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -5992,21 +5992,21 @@
         <v>25</v>
       </c>
       <c r="D25" s="36">
-        <f>'BLS Data Series_January'!B25</f>
-        <v>920.41</v>
+        <f>'BLS Data Series_February'!C25</f>
+        <v>939.37</v>
       </c>
       <c r="E25" s="36">
-        <f>'BLS Data Series_January'!N25</f>
-        <v>921.36</v>
+        <f>'BLS Data Series_February'!O25</f>
+        <v>919.34</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>933.04802834318184</v>
+        <v>948.93090579494037</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2526716726400822</v>
+        <v>-3.1183414529165732</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6024,21 +6024,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="36">
-        <f>'BLS Data Series_January'!B26</f>
-        <v>1008.56</v>
+        <f>'BLS Data Series_February'!C26</f>
+        <v>1009.8</v>
       </c>
       <c r="E26" s="36">
-        <f>'BLS Data Series_January'!N26</f>
-        <v>1047.6199999999999</v>
+        <f>'BLS Data Series_February'!O26</f>
+        <v>1039.5</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37">
         <f t="shared" si="0"/>
-        <v>1022.4084043695738</v>
+        <v>1020.0777421801108</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>2.4659026199977063</v>
+        <v>1.9039978049496531</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6056,21 +6056,21 @@
         <v>27</v>
       </c>
       <c r="D27" s="36">
-        <f>'BLS Data Series_January'!B27</f>
-        <v>814.31</v>
+        <f>'BLS Data Series_February'!C27</f>
+        <v>822.17</v>
       </c>
       <c r="E27" s="36">
-        <f>'BLS Data Series_January'!N27</f>
-        <v>824.04</v>
+        <f>'BLS Data Series_February'!O27</f>
+        <v>820.66</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37">
         <f t="shared" si="0"/>
-        <v>825.49118323370715</v>
+        <v>830.5380444525864</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-0.17579633352623469</v>
+        <v>-1.1893548427510225</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6088,21 +6088,21 @@
         <v>28</v>
       </c>
       <c r="D28" s="36">
-        <f>'BLS Data Series_January'!B28</f>
-        <v>873.68</v>
+        <f>'BLS Data Series_February'!C28</f>
+        <v>884.11</v>
       </c>
       <c r="E28" s="36">
-        <f>'BLS Data Series_January'!N28</f>
-        <v>890.1</v>
+        <f>'BLS Data Series_February'!O28</f>
+        <v>875.16</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37">
         <f t="shared" si="0"/>
-        <v>885.67638487507861</v>
+        <v>893.10846963642086</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>0.49946178993418577</v>
+        <v>-2.0096629073204975</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6120,21 +6120,21 @@
         <v>29</v>
       </c>
       <c r="D29" s="36">
-        <f>'BLS Data Series_January'!B29</f>
-        <v>675.85</v>
+        <f>'BLS Data Series_February'!C29</f>
+        <v>697.53</v>
       </c>
       <c r="E29" s="36">
-        <f>'BLS Data Series_January'!N29</f>
-        <v>684.83</v>
+        <f>'BLS Data Series_February'!O29</f>
+        <v>681.27</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37">
         <f t="shared" si="0"/>
-        <v>685.13000723127675</v>
+        <v>704.6294588065881</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>-4.3788365435792898E-2</v>
+        <v>-3.3151408182892861</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6152,21 +6152,21 @@
         <v>30</v>
       </c>
       <c r="D30" s="36">
-        <f>'BLS Data Series_January'!B30</f>
-        <v>743.76</v>
+        <f>'BLS Data Series_February'!C30</f>
+        <v>759.58</v>
       </c>
       <c r="E30" s="36">
-        <f>'BLS Data Series_January'!N30</f>
-        <v>744.49</v>
+        <f>'BLS Data Series_February'!O30</f>
+        <v>735.93</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37">
         <f t="shared" si="0"/>
-        <v>753.97247048654935</v>
+        <v>767.3110035701809</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2576679995265794</v>
+        <v>-4.0897372022778207</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6184,21 +6184,21 @@
         <v>31</v>
       </c>
       <c r="D31" s="36">
-        <f>'BLS Data Series_January'!B31</f>
-        <v>700.1</v>
+        <f>'BLS Data Series_February'!C31</f>
+        <v>722.67</v>
       </c>
       <c r="E31" s="36">
-        <f>'BLS Data Series_January'!N31</f>
-        <v>711.34</v>
+        <f>'BLS Data Series_February'!O31</f>
+        <v>722.25</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37">
         <f t="shared" si="0"/>
-        <v>709.71298078363077</v>
+        <v>730.02533367132173</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>0.22925031110081484</v>
+        <v>-1.0650772394732222</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6216,21 +6216,21 @@
         <v>32</v>
       </c>
       <c r="D32" s="36">
-        <f>'BLS Data Series_January'!B32</f>
-        <v>738.53</v>
+        <f>'BLS Data Series_February'!C32</f>
+        <v>755.63</v>
       </c>
       <c r="E32" s="36">
-        <f>'BLS Data Series_January'!N32</f>
-        <v>767.42</v>
+        <f>'BLS Data Series_February'!O32</f>
+        <v>760.57</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37">
         <f t="shared" si="0"/>
-        <v>748.67065804618596</v>
+        <v>763.32080047886427</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>2.504351112509795</v>
+        <v>-0.36037279177227877</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6248,21 +6248,21 @@
         <v>33</v>
       </c>
       <c r="D33" s="36">
-        <f>'BLS Data Series_January'!B33</f>
-        <v>717.45</v>
+        <f>'BLS Data Series_February'!C33</f>
+        <v>732.98</v>
       </c>
       <c r="E33" s="36">
-        <f>'BLS Data Series_January'!N33</f>
-        <v>737.37</v>
+        <f>'BLS Data Series_February'!O33</f>
+        <v>740.69</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37">
         <f t="shared" si="0"/>
-        <v>727.30121134583055</v>
+        <v>740.44026882865683</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>1.3844042189257166</v>
+        <v>3.372738921105789E-2</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6280,21 +6280,21 @@
         <v>34</v>
       </c>
       <c r="D34" s="36">
-        <f>'BLS Data Series_January'!B34</f>
-        <v>809.34</v>
+        <f>'BLS Data Series_February'!C34</f>
+        <v>819.54</v>
       </c>
       <c r="E34" s="36">
-        <f>'BLS Data Series_January'!N34</f>
-        <v>859.55</v>
+        <f>'BLS Data Series_February'!O34</f>
+        <v>855.9</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37">
         <f t="shared" si="0"/>
-        <v>820.45294081905979</v>
+        <v>827.88127631836801</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.7653018516710333</v>
+        <v>3.3843891006005933</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6312,21 +6312,21 @@
         <v>35</v>
       </c>
       <c r="D35" s="36">
-        <f>'BLS Data Series_January'!B35</f>
-        <v>918.98</v>
+        <f>'BLS Data Series_February'!C35</f>
+        <v>942.36</v>
       </c>
       <c r="E35" s="36">
-        <f>'BLS Data Series_January'!N35</f>
-        <v>933.41</v>
+        <f>'BLS Data Series_February'!O35</f>
+        <v>939.46</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37">
         <f t="shared" si="0"/>
-        <v>931.5983932017441</v>
+        <v>951.95133800836732</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>0.194462207263979</v>
+        <v>-1.3121824099224577</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6344,21 +6344,21 @@
         <v>36</v>
       </c>
       <c r="D36" s="36">
-        <f>'BLS Data Series_January'!B36</f>
-        <v>699.02</v>
+        <f>'BLS Data Series_February'!C36</f>
+        <v>708.3</v>
       </c>
       <c r="E36" s="36">
-        <f>'BLS Data Series_January'!N36</f>
-        <v>688.71</v>
+        <f>'BLS Data Series_February'!O36</f>
+        <v>692.11</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37">
         <f t="shared" si="0"/>
-        <v>708.61815144604134</v>
+        <v>715.5090758429119</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-2.8094328949118452</v>
+        <v>-3.2702696070411652</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6376,21 +6376,21 @@
         <v>37</v>
       </c>
       <c r="D37" s="36">
-        <f>'BLS Data Series_January'!B37</f>
-        <v>961.45</v>
+        <f>'BLS Data Series_February'!C37</f>
+        <v>978.31</v>
       </c>
       <c r="E37" s="36">
-        <f>'BLS Data Series_January'!N37</f>
-        <v>975.61</v>
+        <f>'BLS Data Series_February'!O37</f>
+        <v>982.39</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37">
         <f t="shared" si="0"/>
-        <v>974.65154317157817</v>
+        <v>988.26723702933668</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>9.8338409776999036E-2</v>
+        <v>-0.59470119104658714</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6408,21 +6408,21 @@
         <v>38</v>
       </c>
       <c r="D38" s="36">
-        <f>'BLS Data Series_January'!B38</f>
-        <v>753.77</v>
+        <f>'BLS Data Series_February'!C38</f>
+        <v>771.08</v>
       </c>
       <c r="E38" s="36">
-        <f>'BLS Data Series_January'!N38</f>
-        <v>776.11</v>
+        <f>'BLS Data Series_February'!O38</f>
+        <v>782.81</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37">
         <f t="shared" si="0"/>
-        <v>764.11991647661387</v>
+        <v>778.92805054489986</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>1.569136370463009</v>
+        <v>0.49837073557492673</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -6440,21 +6440,21 @@
         <v>39</v>
       </c>
       <c r="D39" s="36">
-        <f>'BLS Data Series_January'!B39</f>
-        <v>864.92</v>
+        <f>'BLS Data Series_February'!C39</f>
+        <v>873.25</v>
       </c>
       <c r="E39" s="36">
-        <f>'BLS Data Series_January'!N39</f>
-        <v>887.5</v>
+        <f>'BLS Data Series_February'!O39</f>
+        <v>872.1</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37">
         <f t="shared" si="0"/>
-        <v>876.79610247018695</v>
+        <v>882.13793658029488</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>1.2207966595263242</v>
+        <v>-1.1379100891191762</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -6472,21 +6472,21 @@
         <v>40</v>
       </c>
       <c r="D40" s="36">
-        <f>'BLS Data Series_January'!B40</f>
-        <v>760.84</v>
+        <f>'BLS Data Series_February'!C40</f>
+        <v>771.68</v>
       </c>
       <c r="E40" s="36">
-        <f>'BLS Data Series_January'!N40</f>
-        <v>785.66</v>
+        <f>'BLS Data Series_February'!O40</f>
+        <v>780.38</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>771.28699371435175</v>
+        <v>779.53415734358077</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>1.8635094851568779</v>
+        <v>0.10850616980038197</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -6504,21 +6504,21 @@
         <v>41</v>
       </c>
       <c r="D41" s="36">
-        <f>'BLS Data Series_January'!B41</f>
-        <v>755.32</v>
+        <f>'BLS Data Series_February'!C41</f>
+        <v>767.55</v>
       </c>
       <c r="E41" s="36">
-        <f>'BLS Data Series_January'!N41</f>
-        <v>755.24</v>
+        <f>'BLS Data Series_February'!O41</f>
+        <v>755.07</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37">
         <f t="shared" si="0"/>
-        <v>765.69119932222827</v>
+        <v>775.36212221265998</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3649365869007557</v>
+        <v>-2.6171154911142747</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -6536,21 +6536,21 @@
         <v>42</v>
       </c>
       <c r="D42" s="36">
-        <f>'BLS Data Series_January'!B42</f>
-        <v>778.22</v>
+        <f>'BLS Data Series_February'!C42</f>
+        <v>807.56</v>
       </c>
       <c r="E42" s="36">
-        <f>'BLS Data Series_January'!N42</f>
-        <v>809.86</v>
+        <f>'BLS Data Series_February'!O42</f>
+        <v>822.28</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37">
         <f t="shared" si="0"/>
-        <v>788.90563620259559</v>
+        <v>815.77934390470421</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>2.6561305732671014</v>
+        <v>0.79686451291847149</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6568,21 +6568,21 @@
         <v>43</v>
       </c>
       <c r="D43" s="36">
-        <f>'BLS Data Series_January'!B43</f>
-        <v>799.6</v>
+        <f>'BLS Data Series_February'!C43</f>
+        <v>811.83</v>
       </c>
       <c r="E43" s="36">
-        <f>'BLS Data Series_January'!N43</f>
-        <v>829.36</v>
+        <f>'BLS Data Series_February'!O43</f>
+        <v>824.21</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37">
         <f t="shared" si="0"/>
-        <v>810.57920216339267</v>
+        <v>820.09280395531732</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>2.3169602410822332</v>
+        <v>0.50204025993465518</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -6600,21 +6600,21 @@
         <v>44</v>
       </c>
       <c r="D44" s="36">
-        <f>'BLS Data Series_January'!B44</f>
-        <v>827.87</v>
+        <f>'BLS Data Series_February'!C44</f>
+        <v>831.68</v>
       </c>
       <c r="E44" s="36">
-        <f>'BLS Data Series_January'!N44</f>
-        <v>840.06</v>
+        <f>'BLS Data Series_February'!O44</f>
+        <v>845.98</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f t="shared" si="0"/>
-        <v>839.23737380566263</v>
+        <v>840.14483721168006</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>9.8020681634691798E-2</v>
+        <v>0.69454248004261476</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -6632,21 +6632,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="36">
-        <f>'BLS Data Series_January'!B45</f>
-        <v>744.31</v>
+        <f>'BLS Data Series_February'!C45</f>
+        <v>739.06</v>
       </c>
       <c r="E45" s="36">
-        <f>'BLS Data Series_January'!N45</f>
-        <v>753.91</v>
+        <f>'BLS Data Series_February'!O45</f>
+        <v>749.58</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37">
         <f t="shared" si="0"/>
-        <v>754.53002246402536</v>
+        <v>746.58215105529086</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>-8.2173332480606209E-2</v>
+        <v>0.40154307740571937</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -6664,21 +6664,21 @@
         <v>46</v>
       </c>
       <c r="D46" s="36">
-        <f>'BLS Data Series_January'!B46</f>
-        <v>701.49</v>
+        <f>'BLS Data Series_February'!C46</f>
+        <v>715.81</v>
       </c>
       <c r="E46" s="36">
-        <f>'BLS Data Series_January'!N46</f>
-        <v>718.37</v>
+        <f>'BLS Data Series_February'!O46</f>
+        <v>705.41</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37">
         <f t="shared" si="0"/>
-        <v>711.12206669034299</v>
+        <v>723.09551260640239</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>1.019224919202677</v>
+        <v>-2.4458058856782094</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -6696,21 +6696,21 @@
         <v>47</v>
       </c>
       <c r="D47" s="36">
-        <f>'BLS Data Series_January'!B47</f>
-        <v>718.98</v>
+        <f>'BLS Data Series_February'!C47</f>
+        <v>727.66</v>
       </c>
       <c r="E47" s="36">
-        <f>'BLS Data Series_January'!N47</f>
-        <v>753.6</v>
+        <f>'BLS Data Series_February'!O47</f>
+        <v>747.25</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37">
         <f t="shared" si="0"/>
-        <v>728.85221957408214</v>
+        <v>735.06612188035194</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>3.3954455733673505</v>
+        <v>1.6575213789585153</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -6728,21 +6728,21 @@
         <v>48</v>
       </c>
       <c r="D48" s="36">
-        <f>'BLS Data Series_January'!B48</f>
-        <v>883.01</v>
+        <f>'BLS Data Series_February'!C48</f>
+        <v>907.49</v>
       </c>
       <c r="E48" s="36">
-        <f>'BLS Data Series_January'!N48</f>
-        <v>877.86</v>
+        <f>'BLS Data Series_February'!O48</f>
+        <v>871.08</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37">
         <f t="shared" si="0"/>
-        <v>895.13449387480898</v>
+        <v>916.72643122502359</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>-1.9298210484585465</v>
+        <v>-4.9792860410958317</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -6760,21 +6760,21 @@
         <v>49</v>
       </c>
       <c r="D49" s="36">
-        <f>'BLS Data Series_January'!B49</f>
-        <v>825.6</v>
+        <f>'BLS Data Series_February'!C49</f>
+        <v>850.02</v>
       </c>
       <c r="E49" s="36">
-        <f>'BLS Data Series_January'!N49</f>
-        <v>835.79</v>
+        <f>'BLS Data Series_February'!O49</f>
+        <v>852.7</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37">
         <f t="shared" si="0"/>
-        <v>836.93620473498868</v>
+        <v>858.67150169136244</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>-0.13695246166960384</v>
+        <v>-0.69543494568062858</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -6792,21 +6792,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="36">
-        <f>'BLS Data Series_January'!B50</f>
-        <v>775.45</v>
+        <f>'BLS Data Series_February'!C50</f>
+        <v>781.11</v>
       </c>
       <c r="E50" s="36">
-        <f>'BLS Data Series_January'!N50</f>
-        <v>808.83</v>
+        <f>'BLS Data Series_February'!O50</f>
+        <v>796.38</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37">
         <f t="shared" si="0"/>
-        <v>786.0976016978525</v>
+        <v>789.06013586285042</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>2.8918035436120038</v>
+        <v>0.92766872947460666</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -6824,21 +6824,21 @@
         <v>51</v>
       </c>
       <c r="D51" s="36">
-        <f>'BLS Data Series_January'!B51</f>
-        <v>889.76</v>
+        <f>'BLS Data Series_February'!C51</f>
+        <v>923.13</v>
       </c>
       <c r="E51" s="36">
-        <f>'BLS Data Series_January'!N51</f>
-        <v>919.77</v>
+        <f>'BLS Data Series_February'!O51</f>
+        <v>912.98</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37">
         <f t="shared" si="0"/>
-        <v>901.97717723474261</v>
+        <v>932.52561511064141</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>1.9726466715938473</v>
+        <v>-2.0959869406184994</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -6856,21 +6856,21 @@
         <v>52</v>
       </c>
       <c r="D52" s="36">
-        <f>'BLS Data Series_January'!B52</f>
-        <v>990.86</v>
+        <f>'BLS Data Series_February'!C52</f>
+        <v>1024.69</v>
       </c>
       <c r="E52" s="36">
-        <f>'BLS Data Series_January'!N52</f>
-        <v>1031.9000000000001</v>
+        <f>'BLS Data Series_February'!O52</f>
+        <v>1031.53</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f t="shared" si="0"/>
-        <v>1004.4653680035258</v>
+        <v>1035.1192925673774</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>2.7312670869881206</v>
+        <v>-0.34675158632925251</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -6888,21 +6888,21 @@
         <v>53</v>
       </c>
       <c r="D53" s="36">
-        <f>'BLS Data Series_January'!B53</f>
-        <v>714.81</v>
+        <f>'BLS Data Series_February'!C53</f>
+        <v>711.7</v>
       </c>
       <c r="E53" s="36">
-        <f>'BLS Data Series_January'!N53</f>
-        <v>715.12</v>
+        <f>'BLS Data Series_February'!O53</f>
+        <v>727.16</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37">
         <f t="shared" si="0"/>
-        <v>724.62496185394525</v>
+        <v>718.94368103543763</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3117077597805782</v>
+        <v>1.1428320717318252</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -6920,21 +6920,21 @@
         <v>54</v>
       </c>
       <c r="D54" s="36">
-        <f>'BLS Data Series_January'!B54</f>
-        <v>787.24</v>
+        <f>'BLS Data Series_February'!C54</f>
+        <v>795.32</v>
       </c>
       <c r="E54" s="36">
-        <f>'BLS Data Series_January'!N54</f>
-        <v>795.14</v>
+        <f>'BLS Data Series_February'!O54</f>
+        <v>793.48</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
         <f t="shared" si="0"/>
-        <v>798.04948863320317</v>
+        <v>803.41476521161201</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>-0.36457496366374409</v>
+        <v>-1.2365674172038932</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -6952,21 +6952,21 @@
         <v>55</v>
       </c>
       <c r="D55" s="36">
-        <f>'BLS Data Series_January'!B55</f>
-        <v>811.19</v>
+        <f>'BLS Data Series_February'!C55</f>
+        <v>835.75</v>
       </c>
       <c r="E55" s="36">
-        <f>'BLS Data Series_January'!N55</f>
-        <v>773.14</v>
+        <f>'BLS Data Series_February'!O55</f>
+        <v>780.55</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37">
         <f t="shared" si="0"/>
-        <v>822.32834292511563</v>
+        <v>844.25626166273287</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-5.9815940126965668</v>
+        <v>-7.5458441418326805</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -6987,10 +6987,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -7007,20 +7007,20 @@
       <c r="C58" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="45">
-        <v>856.7</v>
-      </c>
-      <c r="E58" s="45">
-        <v>878.15</v>
+      <c r="D58" s="44">
+        <v>858.08</v>
+      </c>
+      <c r="E58" s="44">
+        <v>872.04</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>868.46323473409018</v>
+        <v>866.81353635364383</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>1.1153915190060593</v>
+        <v>0.6029513184971691</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -7058,15 +7058,15 @@
         <v>58</v>
       </c>
       <c r="D61" s="43">
-        <v>233.70699999999999</v>
+        <v>234.72200000000001</v>
       </c>
       <c r="E61" s="43">
-        <v>236.916</v>
+        <v>237.11099999999999</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98645511489304227</v>
+        <v>0.98992455010522507</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7126,14 +7126,14 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="44" customWidth="1"/>
-    <col min="2" max="255" width="8" style="44" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="23" style="45" customWidth="1"/>
+    <col min="2" max="255" width="8" style="45" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7218,40 +7218,40 @@
         <v>171</v>
       </c>
       <c r="N4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y4" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,10 @@
         <v>760.06</v>
       </c>
       <c r="N5" s="38">
-        <v>771.06</v>
+        <v>768.22</v>
+      </c>
+      <c r="O5" s="38">
+        <v>768.6</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7339,7 +7342,10 @@
         <v>954.57</v>
       </c>
       <c r="N6" s="38">
-        <v>929.07</v>
+        <v>934.99</v>
+      </c>
+      <c r="O6" s="38">
+        <v>944.03</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7383,7 +7389,10 @@
         <v>797.48</v>
       </c>
       <c r="N7" s="38">
-        <v>800.96</v>
+        <v>803.06</v>
+      </c>
+      <c r="O7" s="38">
+        <v>808.49</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7427,7 +7436,10 @@
         <v>675.37</v>
       </c>
       <c r="N8" s="38">
-        <v>674.67</v>
+        <v>675.35</v>
+      </c>
+      <c r="O8" s="38">
+        <v>675.29</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7471,7 +7483,10 @@
         <v>969.8</v>
       </c>
       <c r="N9" s="38">
-        <v>970.94</v>
+        <v>970.25</v>
+      </c>
+      <c r="O9" s="38">
+        <v>973.33</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7515,7 +7530,10 @@
         <v>897.4</v>
       </c>
       <c r="N10" s="38">
-        <v>912.49</v>
+        <v>915.83</v>
+      </c>
+      <c r="O10" s="38">
+        <v>901.05</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -7559,7 +7577,10 @@
         <v>1001.28</v>
       </c>
       <c r="N11" s="38">
-        <v>1006.29</v>
+        <v>1005.3</v>
+      </c>
+      <c r="O11" s="38">
+        <v>1004.59</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -7603,7 +7624,10 @@
         <v>782.21</v>
       </c>
       <c r="N12" s="38">
-        <v>804.27</v>
+        <v>799.53</v>
+      </c>
+      <c r="O12" s="38">
+        <v>807.28</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -7647,7 +7671,10 @@
         <v>1298.8800000000001</v>
       </c>
       <c r="N13" s="38">
-        <v>1286.9100000000001</v>
+        <v>1287.97</v>
+      </c>
+      <c r="O13" s="38">
+        <v>1308.03</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7693,6 +7720,9 @@
       <c r="N14" s="38">
         <v>777.02</v>
       </c>
+      <c r="O14" s="38">
+        <v>783.76</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -7735,7 +7765,10 @@
         <v>839.72</v>
       </c>
       <c r="N15" s="38">
-        <v>833.49</v>
+        <v>839.36</v>
+      </c>
+      <c r="O15" s="38">
+        <v>846.68</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7779,10 +7812,13 @@
         <v>828.3</v>
       </c>
       <c r="N16" s="38">
-        <v>828.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>824.92</v>
+      </c>
+      <c r="O16" s="38">
+        <v>832.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
@@ -7823,10 +7859,13 @@
         <v>732.15</v>
       </c>
       <c r="N17" s="38">
-        <v>729.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>731.92</v>
+      </c>
+      <c r="O17" s="38">
+        <v>726.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -7867,10 +7906,13 @@
         <v>902.09</v>
       </c>
       <c r="N18" s="38">
-        <v>900.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>900.38</v>
+      </c>
+      <c r="O18" s="38">
+        <v>890.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
@@ -7911,10 +7953,13 @@
         <v>807.3</v>
       </c>
       <c r="N19" s="38">
-        <v>804.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>804.54</v>
+      </c>
+      <c r="O19" s="38">
+        <v>791.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>20</v>
       </c>
@@ -7955,10 +8000,13 @@
         <v>777.92</v>
       </c>
       <c r="N20" s="38">
-        <v>778.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>768.95</v>
+      </c>
+      <c r="O20" s="38">
+        <v>773.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>21</v>
       </c>
@@ -7999,10 +8047,13 @@
         <v>783.82</v>
       </c>
       <c r="N21" s="38">
-        <v>771.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>772.13</v>
+      </c>
+      <c r="O21" s="38">
+        <v>769.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>22</v>
       </c>
@@ -8043,10 +8094,13 @@
         <v>751.08</v>
       </c>
       <c r="N22" s="38">
-        <v>736.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>739.5</v>
+      </c>
+      <c r="O22" s="38">
+        <v>735.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>23</v>
       </c>
@@ -8087,10 +8141,13 @@
         <v>802.28</v>
       </c>
       <c r="N23" s="38">
-        <v>796.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>795.66</v>
+      </c>
+      <c r="O23" s="38">
+        <v>787.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>24</v>
       </c>
@@ -8131,10 +8188,13 @@
         <v>758.38</v>
       </c>
       <c r="N24" s="38">
-        <v>728.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>749.06</v>
+      </c>
+      <c r="O24" s="38">
+        <v>747.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>25</v>
       </c>
@@ -8175,10 +8235,13 @@
         <v>939.13</v>
       </c>
       <c r="N25" s="38">
-        <v>921.36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>919.97</v>
+      </c>
+      <c r="O25" s="38">
+        <v>919.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>26</v>
       </c>
@@ -8219,10 +8282,13 @@
         <v>1044.03</v>
       </c>
       <c r="N26" s="38">
-        <v>1047.6199999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1044.95</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1039.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>27</v>
       </c>
@@ -8263,10 +8329,13 @@
         <v>835.21</v>
       </c>
       <c r="N27" s="38">
-        <v>824.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>823.71</v>
+      </c>
+      <c r="O27" s="38">
+        <v>820.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>28</v>
       </c>
@@ -8307,10 +8376,13 @@
         <v>888.33</v>
       </c>
       <c r="N28" s="38">
-        <v>890.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>894.79</v>
+      </c>
+      <c r="O28" s="38">
+        <v>875.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>29</v>
       </c>
@@ -8351,10 +8423,13 @@
         <v>689.49</v>
       </c>
       <c r="N29" s="38">
-        <v>684.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>687.85</v>
+      </c>
+      <c r="O29" s="38">
+        <v>681.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>30</v>
       </c>
@@ -8395,10 +8470,13 @@
         <v>745.78</v>
       </c>
       <c r="N30" s="38">
-        <v>744.49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>743.15</v>
+      </c>
+      <c r="O30" s="38">
+        <v>735.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>31</v>
       </c>
@@ -8439,10 +8517,13 @@
         <v>722.87</v>
       </c>
       <c r="N31" s="38">
-        <v>711.34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>711.98</v>
+      </c>
+      <c r="O31" s="38">
+        <v>722.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>32</v>
       </c>
@@ -8483,10 +8564,13 @@
         <v>760.84</v>
       </c>
       <c r="N32" s="38">
-        <v>767.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>760.18</v>
+      </c>
+      <c r="O32" s="38">
+        <v>760.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>33</v>
       </c>
@@ -8527,10 +8611,13 @@
         <v>737.14</v>
       </c>
       <c r="N33" s="38">
-        <v>737.37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>739.36</v>
+      </c>
+      <c r="O33" s="38">
+        <v>740.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>34</v>
       </c>
@@ -8571,10 +8658,13 @@
         <v>851.26</v>
       </c>
       <c r="N34" s="38">
-        <v>859.55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>861.14</v>
+      </c>
+      <c r="O34" s="38">
+        <v>855.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
@@ -8615,10 +8705,13 @@
         <v>942.82</v>
       </c>
       <c r="N35" s="38">
-        <v>933.41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>934.75</v>
+      </c>
+      <c r="O35" s="38">
+        <v>939.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>36</v>
       </c>
@@ -8659,10 +8752,13 @@
         <v>693.6</v>
       </c>
       <c r="N36" s="38">
-        <v>688.71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>687.71</v>
+      </c>
+      <c r="O36" s="38">
+        <v>692.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>37</v>
       </c>
@@ -8703,10 +8799,13 @@
         <v>978.31</v>
       </c>
       <c r="N37" s="38">
-        <v>975.61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>977.28</v>
+      </c>
+      <c r="O37" s="38">
+        <v>982.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>38</v>
       </c>
@@ -8747,10 +8846,13 @@
         <v>779.16</v>
       </c>
       <c r="N38" s="38">
-        <v>776.11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>776.72</v>
+      </c>
+      <c r="O38" s="38">
+        <v>782.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>39</v>
       </c>
@@ -8791,10 +8893,13 @@
         <v>881.03</v>
       </c>
       <c r="N39" s="38">
-        <v>887.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>895.13</v>
+      </c>
+      <c r="O39" s="38">
+        <v>872.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>40</v>
       </c>
@@ -8835,10 +8940,13 @@
         <v>788.79</v>
       </c>
       <c r="N40" s="38">
-        <v>785.66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>786.08</v>
+      </c>
+      <c r="O40" s="38">
+        <v>780.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>41</v>
       </c>
@@ -8879,10 +8987,13 @@
         <v>758.1</v>
       </c>
       <c r="N41" s="38">
-        <v>755.24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>756.63</v>
+      </c>
+      <c r="O41" s="38">
+        <v>755.07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>42</v>
       </c>
@@ -8923,10 +9034,13 @@
         <v>808.02</v>
       </c>
       <c r="N42" s="38">
-        <v>809.86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>811.29</v>
+      </c>
+      <c r="O42" s="38">
+        <v>822.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>43</v>
       </c>
@@ -8967,10 +9081,13 @@
         <v>833.45</v>
       </c>
       <c r="N43" s="38">
-        <v>829.36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>831.04</v>
+      </c>
+      <c r="O43" s="38">
+        <v>824.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>44</v>
       </c>
@@ -9011,10 +9128,13 @@
         <v>825.46</v>
       </c>
       <c r="N44" s="38">
-        <v>840.06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>844.34</v>
+      </c>
+      <c r="O44" s="38">
+        <v>845.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>45</v>
       </c>
@@ -9055,10 +9175,13 @@
         <v>749.78</v>
       </c>
       <c r="N45" s="38">
-        <v>753.91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>752.33</v>
+      </c>
+      <c r="O45" s="38">
+        <v>749.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>46</v>
       </c>
@@ -9099,10 +9222,13 @@
         <v>716.57</v>
       </c>
       <c r="N46" s="38">
-        <v>718.37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>717.36</v>
+      </c>
+      <c r="O46" s="38">
+        <v>705.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>47</v>
       </c>
@@ -9143,10 +9269,13 @@
         <v>752.58</v>
       </c>
       <c r="N47" s="38">
-        <v>753.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>755.74</v>
+      </c>
+      <c r="O47" s="38">
+        <v>747.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>48</v>
       </c>
@@ -9187,10 +9316,13 @@
         <v>876.68</v>
       </c>
       <c r="N48" s="38">
-        <v>877.86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>877.15</v>
+      </c>
+      <c r="O48" s="38">
+        <v>871.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>49</v>
       </c>
@@ -9231,10 +9363,13 @@
         <v>829.72</v>
       </c>
       <c r="N49" s="38">
-        <v>835.79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>831.3</v>
+      </c>
+      <c r="O49" s="38">
+        <v>852.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>50</v>
       </c>
@@ -9275,10 +9410,13 @@
         <v>814.11</v>
       </c>
       <c r="N50" s="38">
-        <v>808.83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>806.85</v>
+      </c>
+      <c r="O50" s="38">
+        <v>796.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>51</v>
       </c>
@@ -9319,10 +9457,13 @@
         <v>919.45</v>
       </c>
       <c r="N51" s="38">
-        <v>919.77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>924.76</v>
+      </c>
+      <c r="O51" s="38">
+        <v>912.98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>52</v>
       </c>
@@ -9363,10 +9504,13 @@
         <v>1026.1500000000001</v>
       </c>
       <c r="N52" s="38">
-        <v>1031.9000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1032.58</v>
+      </c>
+      <c r="O52" s="38">
+        <v>1031.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>53</v>
       </c>
@@ -9407,10 +9551,13 @@
         <v>718.99</v>
       </c>
       <c r="N53" s="38">
-        <v>715.12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>720.94</v>
+      </c>
+      <c r="O53" s="38">
+        <v>727.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>54</v>
       </c>
@@ -9451,10 +9598,13 @@
         <v>800.35</v>
       </c>
       <c r="N54" s="38">
-        <v>795.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>793.74</v>
+      </c>
+      <c r="O54" s="38">
+        <v>793.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>55</v>
       </c>
@@ -9495,7 +9645,10 @@
         <v>778.22</v>
       </c>
       <c r="N55" s="38">
-        <v>773.14</v>
+        <v>773.85</v>
+      </c>
+      <c r="O55" s="38">
+        <v>780.55</v>
       </c>
     </row>
   </sheetData>
@@ -9507,7 +9660,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 14, 2016 (10:28:15 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 25, 2016 (11:09:57 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -9518,7 +9671,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,11 +9690,11 @@
       </c>
       <c r="C1" s="24">
         <f>+Wage_Comparison!E58</f>
-        <v>878.15</v>
+        <v>872.04</v>
       </c>
       <c r="D1" s="23">
         <f>+Wage_Comparison!H58</f>
-        <v>1.1153915190060593</v>
+        <v>0.6029513184971691</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -9576,130 +9729,130 @@
       </c>
       <c r="C4" s="26">
         <f>+Wage_Comparison!E13</f>
-        <v>1286.9100000000001</v>
+        <v>1308.03</v>
       </c>
       <c r="D4" s="25">
         <f>+Wage_Comparison!H13</f>
-        <v>-9.2081451615967929</v>
+        <v>-13.098997384338739</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>+Wage_Comparison!B26</f>
-        <v>MA</v>
+        <f>+Wage_Comparison!B55</f>
+        <v>WY</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C5" s="26">
-        <f>+Wage_Comparison!E26</f>
-        <v>1047.6199999999999</v>
+        <f>+Wage_Comparison!E55</f>
+        <v>780.55</v>
       </c>
       <c r="D5" s="25">
-        <f>+Wage_Comparison!H26</f>
-        <v>2.4659026199977063</v>
+        <f>+Wage_Comparison!H55</f>
+        <v>-7.5458441418326805</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Wage_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Wage_Comparison!B48</f>
+        <v>TX</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="26">
-        <f>+Wage_Comparison!E52</f>
-        <v>1031.9000000000001</v>
+        <f>+Wage_Comparison!E48</f>
+        <v>871.08</v>
       </c>
       <c r="D6" s="25">
-        <f>+Wage_Comparison!H52</f>
-        <v>2.7312670869881206</v>
+        <f>+Wage_Comparison!H48</f>
+        <v>-4.9792860410958317</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>+Wage_Comparison!B11</f>
-        <v>CT</v>
+        <f>+Wage_Comparison!B30</f>
+        <v>MO</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C7" s="26">
-        <f>+Wage_Comparison!E11</f>
-        <v>1006.29</v>
+        <f>+Wage_Comparison!E30</f>
+        <v>735.93</v>
       </c>
       <c r="D7" s="25">
-        <f>+Wage_Comparison!H11</f>
-        <v>3.8249450957252407</v>
+        <f>+Wage_Comparison!H30</f>
+        <v>-4.0897372022778207</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Wage_Comparison!B37</f>
-        <v>NY</v>
+        <f>+Wage_Comparison!B17</f>
+        <v>ID</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C8" s="26">
-        <f>+Wage_Comparison!E37</f>
-        <v>975.61</v>
+        <f>+Wage_Comparison!E17</f>
+        <v>726.43</v>
       </c>
       <c r="D8" s="25">
-        <f>+Wage_Comparison!H37</f>
-        <v>9.8338409776999036E-2</v>
+        <f>+Wage_Comparison!H17</f>
+        <v>-3.4452393446381291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>+Wage_Comparison!B9</f>
-        <v>CA</v>
+        <f>+Wage_Comparison!B23</f>
+        <v>LA</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C9" s="26">
-        <f>+Wage_Comparison!E9</f>
-        <v>970.94</v>
+        <f>+Wage_Comparison!E23</f>
+        <v>787.42</v>
       </c>
       <c r="D9" s="25">
-        <f>+Wage_Comparison!H9</f>
-        <v>0.24163030667836427</v>
+        <f>+Wage_Comparison!H23</f>
+        <v>-3.3207167360583045</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Wage_Comparison!B35</f>
-        <v>NJ</v>
+        <f>+Wage_Comparison!B29</f>
+        <v>MS</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C10" s="26">
-        <f>+Wage_Comparison!E35</f>
-        <v>933.41</v>
+        <f>+Wage_Comparison!E29</f>
+        <v>681.27</v>
       </c>
       <c r="D10" s="25">
-        <f>+Wage_Comparison!H35</f>
-        <v>0.194462207263979</v>
+        <f>+Wage_Comparison!H29</f>
+        <v>-3.3151408182892861</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>+Wage_Comparison!B6</f>
-        <v>AK</v>
+        <f>+Wage_Comparison!B36</f>
+        <v>NM</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C11" s="26">
-        <f>+Wage_Comparison!E6</f>
-        <v>929.07</v>
+        <f>+Wage_Comparison!E36</f>
+        <v>692.11</v>
       </c>
       <c r="D11" s="25">
-        <f>+Wage_Comparison!H6</f>
-        <v>-0.1986416794242829</v>
+        <f>+Wage_Comparison!H36</f>
+        <v>-3.2702696070411652</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9712,773 +9865,773 @@
       </c>
       <c r="C12" s="26">
         <f>+Wage_Comparison!E25</f>
-        <v>921.36</v>
+        <v>919.34</v>
       </c>
       <c r="D12" s="25">
         <f>+Wage_Comparison!H25</f>
-        <v>-1.2526716726400822</v>
+        <v>-3.1183414529165732</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
+        <f>+Wage_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="26">
+        <f>+Wage_Comparison!E10</f>
+        <v>901.05</v>
+      </c>
+      <c r="D13" s="25">
+        <f>+Wage_Comparison!H10</f>
+        <v>-3.0318183340602878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Wage_Comparison!B41</f>
+        <v>OK</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="26">
+        <f>+Wage_Comparison!E41</f>
+        <v>755.07</v>
+      </c>
+      <c r="D14" s="25">
+        <f>+Wage_Comparison!H41</f>
+        <v>-2.6171154911142747</v>
+      </c>
+      <c r="F14" s="26">
+        <f>C$1-C14</f>
+        <v>116.96999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Wage_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="26">
+        <f>+Wage_Comparison!E21</f>
+        <v>769.5</v>
+      </c>
+      <c r="D15" s="25">
+        <f>+Wage_Comparison!H21</f>
+        <v>-2.5612467470009448</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>102.53999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Wage_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="26">
+        <f>+Wage_Comparison!E46</f>
+        <v>705.41</v>
+      </c>
+      <c r="D16" s="25">
+        <f>+Wage_Comparison!H46</f>
+        <v>-2.4458058856782094</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>166.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Wage_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="26">
+        <f>+Wage_Comparison!E18</f>
+        <v>890.63</v>
+      </c>
+      <c r="D17" s="25">
+        <f>+Wage_Comparison!H18</f>
+        <v>-2.1620944514485485</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>-18.590000000000032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>+Wage_Comparison!B51</f>
         <v>VA</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C18" s="26">
         <f>+Wage_Comparison!E51</f>
-        <v>919.77</v>
-      </c>
-      <c r="D13" s="25">
+        <v>912.98</v>
+      </c>
+      <c r="D18" s="25">
         <f>+Wage_Comparison!H51</f>
-        <v>1.9726466715938473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Wage_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="26">
-        <f>+Wage_Comparison!E10</f>
-        <v>912.49</v>
-      </c>
-      <c r="D14" s="25">
-        <f>+Wage_Comparison!H10</f>
-        <v>0.56199617794125967</v>
-      </c>
-      <c r="F14" s="26">
-        <f>C$1-C14</f>
-        <v>-34.340000000000032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Wage_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="26">
-        <f>+Wage_Comparison!E18</f>
-        <v>900.32</v>
-      </c>
-      <c r="D15" s="25">
-        <f>+Wage_Comparison!H18</f>
-        <v>1.7803629471462967</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>-22.170000000000073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+        <v>-2.0959869406184994</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>-40.940000000000055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Wage_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="26">
+        <f>+Wage_Comparison!E19</f>
+        <v>791.99</v>
+      </c>
+      <c r="D19" s="25">
+        <f>+Wage_Comparison!H19</f>
+        <v>-2.0109555758233699</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>80.049999999999955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>+Wage_Comparison!B28</f>
         <v>MN</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C20" s="26">
         <f>+Wage_Comparison!E28</f>
-        <v>890.1</v>
-      </c>
-      <c r="D16" s="25">
+        <v>875.16</v>
+      </c>
+      <c r="D20" s="25">
         <f>+Wage_Comparison!H28</f>
-        <v>0.49946178993418577</v>
-      </c>
-      <c r="F16" s="26">
+        <v>-2.0096629073204975</v>
+      </c>
+      <c r="F20" s="26">
         <f t="shared" si="0"/>
-        <v>-11.950000000000045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+        <v>-3.1200000000000045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Wage_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="26">
+        <f>+Wage_Comparison!E9</f>
+        <v>973.33</v>
+      </c>
+      <c r="D21" s="25">
+        <f>+Wage_Comparison!H9</f>
+        <v>-1.7504754454599647</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>-101.29000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Wage_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="26">
+        <f>+Wage_Comparison!E16</f>
+        <v>832.93</v>
+      </c>
+      <c r="D22" s="25">
+        <f>+Wage_Comparison!H16</f>
+        <v>-1.7471573499588833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Wage_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="26">
+        <f>+Wage_Comparison!E15</f>
+        <v>846.68</v>
+      </c>
+      <c r="D23" s="25">
+        <f>+Wage_Comparison!H15</f>
+        <v>-1.3152500726355321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Wage_Comparison!B35</f>
+        <v>NJ</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="26">
+        <f>+Wage_Comparison!E35</f>
+        <v>939.46</v>
+      </c>
+      <c r="D24" s="25">
+        <f>+Wage_Comparison!H35</f>
+        <v>-1.3121824099224577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Wage_Comparison!B20</f>
+        <v>IA</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="26">
+        <f>+Wage_Comparison!E20</f>
+        <v>773.26</v>
+      </c>
+      <c r="D25" s="25">
+        <f>+Wage_Comparison!H20</f>
+        <v>-1.273111458925591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Wage_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="26">
+        <f>+Wage_Comparison!E54</f>
+        <v>793.48</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+Wage_Comparison!H54</f>
+        <v>-1.2365674172038932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Wage_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="26">
+        <f>+Wage_Comparison!E27</f>
+        <v>820.66</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+Wage_Comparison!H27</f>
+        <v>-1.1893548427510225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Wage_Comparison!B6</f>
+        <v>AK</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="26">
+        <f>+Wage_Comparison!E6</f>
+        <v>944.03</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+Wage_Comparison!H6</f>
+        <v>-1.1823545483942599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
         <f>+Wage_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C29" s="26">
         <f>+Wage_Comparison!E39</f>
-        <v>887.5</v>
-      </c>
-      <c r="D17" s="25">
+        <v>872.1</v>
+      </c>
+      <c r="D29" s="25">
         <f>+Wage_Comparison!H39</f>
-        <v>1.2207966595263242</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>-9.3500000000000227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Wage_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="26">
-        <f>+Wage_Comparison!E48</f>
-        <v>877.86</v>
-      </c>
-      <c r="D18" s="25">
-        <f>+Wage_Comparison!H48</f>
-        <v>-1.9298210484585465</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>0.28999999999996362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+        <v>-1.1379100891191762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Wage_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="26">
+        <f>+Wage_Comparison!E31</f>
+        <v>722.25</v>
+      </c>
+      <c r="D30" s="25">
+        <f>+Wage_Comparison!H31</f>
+        <v>-1.0650772394732222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Wage_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="26">
+        <f>+Wage_Comparison!E24</f>
+        <v>747.94</v>
+      </c>
+      <c r="D31" s="25">
+        <f>+Wage_Comparison!H24</f>
+        <v>-1.0154855607350188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Wage_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="26">
+        <f>+Wage_Comparison!E7</f>
+        <v>808.49</v>
+      </c>
+      <c r="D32" s="25">
+        <f>+Wage_Comparison!H7</f>
+        <v>-0.90458744325222495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Wage_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="26">
+        <f>+Wage_Comparison!E8</f>
+        <v>675.29</v>
+      </c>
+      <c r="D33" s="25">
+        <f>+Wage_Comparison!H8</f>
+        <v>-0.90188572860380178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>+Wage_Comparison!B14</f>
+        <v>FL</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="26">
+        <f>+Wage_Comparison!E14</f>
+        <v>783.76</v>
+      </c>
+      <c r="D34" s="25">
+        <f>+Wage_Comparison!H14</f>
+        <v>-0.75809803265951548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>+Wage_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="26">
+        <f>+Wage_Comparison!E49</f>
+        <v>852.7</v>
+      </c>
+      <c r="D35" s="25">
+        <f>+Wage_Comparison!H49</f>
+        <v>-0.69543494568062858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Wage_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="26">
+        <f>+Wage_Comparison!E37</f>
+        <v>982.39</v>
+      </c>
+      <c r="D36" s="25">
+        <f>+Wage_Comparison!H37</f>
+        <v>-0.59470119104658714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Wage_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="26">
+        <f>+Wage_Comparison!E22</f>
+        <v>735.99</v>
+      </c>
+      <c r="D37" s="25">
+        <f>+Wage_Comparison!H22</f>
+        <v>-0.37813197255112119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Wage_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="26">
+        <f>+Wage_Comparison!E32</f>
+        <v>760.57</v>
+      </c>
+      <c r="D38" s="25">
+        <f>+Wage_Comparison!H32</f>
+        <v>-0.36037279177227877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Wage_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="26">
+        <f>+Wage_Comparison!E52</f>
+        <v>1031.53</v>
+      </c>
+      <c r="D39" s="25">
+        <f>+Wage_Comparison!H52</f>
+        <v>-0.34675158632925251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>+Wage_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="26">
+        <f>+Wage_Comparison!E33</f>
+        <v>740.69</v>
+      </c>
+      <c r="D40" s="25">
+        <f>+Wage_Comparison!H33</f>
+        <v>3.372738921105789E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Wage_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="26">
+        <f>+Wage_Comparison!E5</f>
+        <v>768.6</v>
+      </c>
+      <c r="D41" s="25">
+        <f>+Wage_Comparison!H5</f>
+        <v>0.10472978592164228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>+Wage_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="26">
+        <f>+Wage_Comparison!E40</f>
+        <v>780.38</v>
+      </c>
+      <c r="D42" s="25">
+        <f>+Wage_Comparison!H40</f>
+        <v>0.10850616980038197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Wage_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="26">
+        <f>+Wage_Comparison!E45</f>
+        <v>749.58</v>
+      </c>
+      <c r="D43" s="25">
+        <f>+Wage_Comparison!H45</f>
+        <v>0.40154307740571937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Wage_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="26">
+        <f>+Wage_Comparison!E38</f>
+        <v>782.81</v>
+      </c>
+      <c r="D44" s="25">
+        <f>+Wage_Comparison!H38</f>
+        <v>0.49837073557492673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Wage_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="26">
+        <f>+Wage_Comparison!E43</f>
+        <v>824.21</v>
+      </c>
+      <c r="D45" s="25">
+        <f>+Wage_Comparison!H43</f>
+        <v>0.50204025993465518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Wage_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="26">
+        <f>+Wage_Comparison!E44</f>
+        <v>845.98</v>
+      </c>
+      <c r="D46" s="25">
+        <f>+Wage_Comparison!H44</f>
+        <v>0.69454248004261476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Wage_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="26">
+        <f>+Wage_Comparison!E42</f>
+        <v>822.28</v>
+      </c>
+      <c r="D47" s="25">
+        <f>+Wage_Comparison!H42</f>
+        <v>0.79686451291847149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Wage_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="26">
+        <f>+Wage_Comparison!E50</f>
+        <v>796.38</v>
+      </c>
+      <c r="D48" s="25">
+        <f>+Wage_Comparison!H50</f>
+        <v>0.92766872947460666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Wage_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="26">
+        <f>+Wage_Comparison!E53</f>
+        <v>727.16</v>
+      </c>
+      <c r="D49" s="25">
+        <f>+Wage_Comparison!H53</f>
+        <v>1.1428320717318252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Wage_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="26">
+        <f>+Wage_Comparison!E47</f>
+        <v>747.25</v>
+      </c>
+      <c r="D50" s="25">
+        <f>+Wage_Comparison!H47</f>
+        <v>1.6575213789585153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Wage_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="26">
+        <f>+Wage_Comparison!E26</f>
+        <v>1039.5</v>
+      </c>
+      <c r="D51" s="25">
+        <f>+Wage_Comparison!H26</f>
+        <v>1.9039978049496531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>+Wage_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="26">
+        <f>+Wage_Comparison!E11</f>
+        <v>1004.59</v>
+      </c>
+      <c r="D52" s="25">
+        <f>+Wage_Comparison!H11</f>
+        <v>2.1769998140522828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>+Wage_Comparison!B34</f>
         <v>NH</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C53" s="26">
         <f>+Wage_Comparison!E34</f>
-        <v>859.55</v>
-      </c>
-      <c r="D19" s="25">
+        <v>855.9</v>
+      </c>
+      <c r="D53" s="25">
         <f>+Wage_Comparison!H34</f>
-        <v>4.7653018516710333</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>18.600000000000023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Wage_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="26">
-        <f>+Wage_Comparison!E44</f>
-        <v>840.06</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+Wage_Comparison!H44</f>
-        <v>9.8020681634691798E-2</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>38.090000000000032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Wage_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="26">
-        <f>+Wage_Comparison!E49</f>
-        <v>835.79</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+Wage_Comparison!H49</f>
-        <v>-0.13695246166960384</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>42.360000000000014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Wage_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="26">
-        <f>+Wage_Comparison!E15</f>
-        <v>833.49</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Wage_Comparison!H15</f>
-        <v>-0.97907172904727613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Wage_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="26">
-        <f>+Wage_Comparison!E43</f>
-        <v>829.36</v>
-      </c>
-      <c r="D23" s="25">
-        <f>+Wage_Comparison!H43</f>
-        <v>2.3169602410822332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Wage_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="26">
-        <f>+Wage_Comparison!E16</f>
-        <v>828.96</v>
-      </c>
-      <c r="D24" s="25">
-        <f>+Wage_Comparison!H16</f>
-        <v>0.49178868196284586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Wage_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="26">
-        <f>+Wage_Comparison!E27</f>
-        <v>824.04</v>
-      </c>
-      <c r="D25" s="25">
-        <f>+Wage_Comparison!H27</f>
-        <v>-0.17579633352623469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Wage_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="26">
-        <f>+Wage_Comparison!E42</f>
-        <v>809.86</v>
-      </c>
-      <c r="D26" s="25">
-        <f>+Wage_Comparison!H42</f>
-        <v>2.6561305732671014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Wage_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Wage_Comparison!E50</f>
-        <v>808.83</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Wage_Comparison!H50</f>
-        <v>2.8918035436120038</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+        <v>3.3843891006005933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>+Wage_Comparison!B12</f>
         <v>DE</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B54" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C54" s="26">
         <f>+Wage_Comparison!E12</f>
-        <v>804.27</v>
-      </c>
-      <c r="D28" s="25">
+        <v>807.28</v>
+      </c>
+      <c r="D54" s="25">
         <f>+Wage_Comparison!H12</f>
-        <v>8.6043168229517519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Wage_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Wage_Comparison!E19</f>
-        <v>804.2</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Wage_Comparison!H19</f>
-        <v>-0.60052582420941913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Wage_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="26">
-        <f>+Wage_Comparison!E7</f>
-        <v>800.96</v>
-      </c>
-      <c r="D30" s="25">
-        <f>+Wage_Comparison!H7</f>
-        <v>0.25518193436506742</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Wage_Comparison!B23</f>
-        <v>LA</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="26">
-        <f>+Wage_Comparison!E23</f>
-        <v>796.37</v>
-      </c>
-      <c r="D31" s="25">
-        <f>+Wage_Comparison!H23</f>
-        <v>-1.1185746664604035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Wage_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Wage_Comparison!E54</f>
-        <v>795.14</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Wage_Comparison!H54</f>
-        <v>-0.36457496366374409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Wage_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="26">
-        <f>+Wage_Comparison!E40</f>
-        <v>785.66</v>
-      </c>
-      <c r="D33" s="25">
-        <f>+Wage_Comparison!H40</f>
-        <v>1.8635094851568779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Wage_Comparison!B20</f>
-        <v>IA</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="26">
-        <f>+Wage_Comparison!E20</f>
-        <v>778.68</v>
-      </c>
-      <c r="D34" s="25">
-        <f>+Wage_Comparison!H20</f>
-        <v>1.6290742326101615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Wage_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="26">
-        <f>+Wage_Comparison!E14</f>
-        <v>777.02</v>
-      </c>
-      <c r="D35" s="25">
-        <f>+Wage_Comparison!H14</f>
-        <v>0.70756570984373823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Wage_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Wage_Comparison!E38</f>
-        <v>776.11</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Wage_Comparison!H38</f>
-        <v>1.569136370463009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Wage_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Wage_Comparison!E55</f>
-        <v>773.14</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Wage_Comparison!H55</f>
-        <v>-5.9815940126965668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Wage_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Wage_Comparison!E21</f>
-        <v>771.12</v>
-      </c>
-      <c r="D38" s="25">
-        <f>+Wage_Comparison!H21</f>
-        <v>-1.2340922646234875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Wage_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Wage_Comparison!E5</f>
-        <v>771.06</v>
-      </c>
-      <c r="D39" s="25">
-        <f>+Wage_Comparison!H5</f>
-        <v>3.7321624124690311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Wage_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="26">
-        <f>+Wage_Comparison!E32</f>
-        <v>767.42</v>
-      </c>
-      <c r="D40" s="25">
-        <f>+Wage_Comparison!H32</f>
-        <v>2.504351112509795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Wage_Comparison!B41</f>
-        <v>OK</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="26">
-        <f>+Wage_Comparison!E41</f>
-        <v>755.24</v>
-      </c>
-      <c r="D41" s="25">
-        <f>+Wage_Comparison!H41</f>
-        <v>-1.3649365869007557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>+Wage_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+Wage_Comparison!E45</f>
-        <v>753.91</v>
-      </c>
-      <c r="D42" s="25">
-        <f>+Wage_Comparison!H45</f>
-        <v>-8.2173332480606209E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Wage_Comparison!B47</f>
-        <v>TN</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Wage_Comparison!E47</f>
-        <v>753.6</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Wage_Comparison!H47</f>
-        <v>3.3954455733673505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Wage_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+Wage_Comparison!E30</f>
-        <v>744.49</v>
-      </c>
-      <c r="D44" s="25">
-        <f>+Wage_Comparison!H30</f>
-        <v>-1.2576679995265794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Wage_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="26">
-        <f>+Wage_Comparison!E33</f>
-        <v>737.37</v>
-      </c>
-      <c r="D45" s="25">
-        <f>+Wage_Comparison!H33</f>
-        <v>1.3844042189257166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Wage_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="26">
-        <f>+Wage_Comparison!E22</f>
-        <v>736.75</v>
-      </c>
-      <c r="D46" s="25">
-        <f>+Wage_Comparison!H22</f>
-        <v>-1.8182448836917109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Wage_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Wage_Comparison!E17</f>
-        <v>729.66</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Wage_Comparison!H17</f>
-        <v>0.31313521843787662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Wage_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="26">
-        <f>+Wage_Comparison!E24</f>
-        <v>728.6</v>
-      </c>
-      <c r="D48" s="25">
-        <f>+Wage_Comparison!H24</f>
-        <v>-3.3222769176559197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Wage_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="26">
-        <f>+Wage_Comparison!E46</f>
-        <v>718.37</v>
-      </c>
-      <c r="D49" s="25">
-        <f>+Wage_Comparison!H46</f>
-        <v>1.019224919202677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Wage_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="26">
-        <f>+Wage_Comparison!E53</f>
-        <v>715.12</v>
-      </c>
-      <c r="D50" s="25">
-        <f>+Wage_Comparison!H53</f>
-        <v>-1.3117077597805782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Wage_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Wage_Comparison!E31</f>
-        <v>711.34</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Wage_Comparison!H31</f>
-        <v>0.22925031110081484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>+Wage_Comparison!B36</f>
-        <v>NM</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="26">
-        <f>+Wage_Comparison!E36</f>
-        <v>688.71</v>
-      </c>
-      <c r="D52" s="25">
-        <f>+Wage_Comparison!H36</f>
-        <v>-2.8094328949118452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>+Wage_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="26">
-        <f>+Wage_Comparison!E29</f>
-        <v>684.83</v>
-      </c>
-      <c r="D53" s="25">
-        <f>+Wage_Comparison!H29</f>
-        <v>-4.3788365435792898E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>+Wage_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="26">
-        <f>+Wage_Comparison!E8</f>
-        <v>674.67</v>
-      </c>
-      <c r="D54" s="25">
-        <f>+Wage_Comparison!H8</f>
-        <v>-0.79868944761603</v>
+        <v>6.5173329968605254</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;878")</f>
-        <v>37</v>
+        <f>COUNTIF(C4:C54, "&lt;873")</f>
+        <v>38</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:D54">
     <sortState ref="A4:D54">
-      <sortCondition descending="1" ref="C3:C54"/>
+      <sortCondition ref="D3:D54"/>
     </sortState>
   </autoFilter>
   <sortState ref="I42:I52">
